--- a/Tkinter/testing.xlsx
+++ b/Tkinter/testing.xlsx
@@ -3140,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IL241"/>
+  <dimension ref="A1:IL240"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A233" workbookViewId="0">
       <selection activeCell="A241" sqref="A241:XFD241"/>
@@ -7478,11 +7478,6 @@
       <c r="J240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241"/>
-      <c r="B241"/>
-      <c r="L241"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7516,7 +7511,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D241)</f>
+        <f>SUM(Sheet!D2:D240)</f>
         <v>370</v>
       </c>
     </row>
@@ -7525,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E241)</f>
+        <f>SUM(Sheet!E2:E240)</f>
         <v>1168</v>
       </c>
     </row>
@@ -7534,7 +7529,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F241)</f>
+        <f>SUM(Sheet!F2:F240)</f>
         <v>613</v>
       </c>
     </row>
@@ -7543,7 +7538,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G241)</f>
+        <f>SUM(Sheet!G2:G240)</f>
         <v>672</v>
       </c>
     </row>
@@ -7552,7 +7547,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H241)</f>
+        <f>SUM(Sheet!H2:H240)</f>
         <v>236</v>
       </c>
     </row>
@@ -7561,7 +7556,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I241)</f>
+        <f>SUM(Sheet!I2:I240)</f>
         <v>270</v>
       </c>
     </row>
@@ -7570,7 +7565,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <f>SUM(Sheet!J2:J241)</f>
+        <f>SUM(Sheet!J2:J240)</f>
         <v>2</v>
       </c>
     </row>
@@ -7579,7 +7574,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>SUM(Sheet!K2:K241)</f>
+        <f>SUM(Sheet!K2:K240)</f>
         <v>0</v>
       </c>
     </row>
@@ -7588,7 +7583,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <f>SUM(Sheet!L2:L241)</f>
+        <f>SUM(Sheet!L2:L240)</f>
         <v>0</v>
       </c>
     </row>
